--- a/InputData/bldgs/DSCF/Distributed Solar Cap Factor.xlsx
+++ b/InputData/bldgs/DSCF/Distributed Solar Cap Factor.xlsx
@@ -2858,7 +2858,7 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>Virginia</t>
+          <t>Minnesota</t>
         </is>
       </c>
     </row>
